--- a/Week-06/Day-01/poi-excel/test.xlsx
+++ b/Week-06/Day-01/poi-excel/test.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="shit 1" r:id="rId4" sheetId="2"/>
     <sheet name="shit 2" r:id="rId5" sheetId="3"/>
+    <sheet name="sheet 2" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,12 +23,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="3">
   <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
     <t>Hello World</t>
+  </si>
+  <si>
+    <t>Hello World normal</t>
   </si>
 </sst>
 </file>
@@ -181,4 +185,22 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>